--- a/data/trans_dic/P55$privada-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$privada-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.5551961860170955</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2941116678754451</v>
+        <v>0.2941116678754452</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4107077566963832</v>
@@ -717,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1060155174978277</v>
+        <v>0.1050756437856532</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2298722049513539</v>
+        <v>0.2275482881439289</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1470077997455382</v>
+        <v>0.151455496953611</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1185019335489853</v>
+        <v>0.1177810241157631</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.214457237605915</v>
+        <v>0.2150877471417414</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08710749440417138</v>
+        <v>0.0893882703264743</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1393430284605587</v>
+        <v>0.1772169846840736</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1547195432098909</v>
+        <v>0.1621558552296565</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6329622563618608</v>
+        <v>0.6562449944213632</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7209376788623195</v>
+        <v>0.7214850256741365</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7012509696671597</v>
+        <v>0.6914448275316804</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5128630845137172</v>
+        <v>0.5152513767120662</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7851675728773096</v>
+        <v>0.7860966762715558</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1</v>
+        <v>0.8895369854969369</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5559497242360538</v>
+        <v>0.57575294539118</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6417211846779932</v>
+        <v>0.6358739192890968</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7104828540549256</v>
+        <v>0.711941891584519</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7231152576654334</v>
+        <v>0.7345817153435654</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4597009230690153</v>
+        <v>0.4603172022959459</v>
       </c>
     </row>
     <row r="7">
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0635097318227543</v>
+        <v>0.06679443294470343</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1468933376008059</v>
+        <v>0.1467183644967368</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0380168506632995</v>
+        <v>0.03725966011739158</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06956896578047485</v>
+        <v>0.06927002453661844</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09854358672066281</v>
+        <v>0.09564408477830555</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1124213453482087</v>
+        <v>0.1103135909440612</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07209121935957913</v>
+        <v>0.08218620668489619</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5112755198857832</v>
+        <v>0.5068513352271226</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6146804216495358</v>
+        <v>0.6194447236990083</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4335305772681062</v>
+        <v>0.4937973566448377</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3576908395183354</v>
+        <v>0.3669369169530667</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>0.8337527267513046</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7218928906614643</v>
+        <v>0.722869978126861</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8267844421445945</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3000303678004921</v>
+        <v>0.3108917630917031</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5536614625937138</v>
+        <v>0.5468852886840709</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.541433002187733</v>
+        <v>0.5894230685878943</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5424431129745684</v>
+        <v>0.5287407213102365</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2704352696282292</v>
+        <v>0.2775777781292795</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1599198473980325</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1618721978778388</v>
+        <v>0.1618721978778389</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.162390394275739</v>
@@ -986,34 +986,34 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.103324627549795</v>
+        <v>0.1064963608241011</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06655902501252077</v>
+        <v>0.07142120191770526</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1270359183929634</v>
+        <v>0.125538078664622</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0522884016792349</v>
+        <v>0.05373800233237848</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06862025235742422</v>
+        <v>0.07305603495204677</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04151963028321942</v>
+        <v>0.04354367139775851</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04425968400814911</v>
+        <v>0.04771403093555706</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1022737351094099</v>
+        <v>0.1053789939666235</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09772704452663769</v>
+        <v>0.09321162277380141</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2374823361372752</v>
+        <v>0.2840117324440178</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2617312292203494</v>
+        <v>0.260450866920443</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5313083770969955</v>
+        <v>0.5403716367263703</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2936219061578378</v>
+        <v>0.3236818383047452</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7803234238855266</v>
+        <v>0.772118383710157</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4115229316822865</v>
+        <v>0.4120390566776649</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.488861445444519</v>
+        <v>0.4870233111981322</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2988624653753107</v>
+        <v>0.3002379109840922</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3525960760078123</v>
+        <v>0.3484942678503131</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2554172362753347</v>
+        <v>0.259591981193862</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3898780271144807</v>
+        <v>0.4007818958577326</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2504377933948795</v>
+        <v>0.2587691224857869</v>
       </c>
     </row>
     <row r="13">
@@ -1116,16 +1116,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06189896455032641</v>
+        <v>0.07175150401595501</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08512151364036899</v>
+        <v>0.08185474636946009</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04071403096217007</v>
+        <v>0.04117738549002432</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08783428951219012</v>
+        <v>0.08700016782050936</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07013662752333069</v>
+        <v>0.06976399050402693</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0909729121563103</v>
+        <v>0.09510574951614528</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05911198688488789</v>
+        <v>0.06700648612906396</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08312794284969091</v>
+        <v>0.08367260007001026</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0724954647865841</v>
+        <v>0.07059806773372623</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09784059482352428</v>
+        <v>0.09764504072766658</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.206558836587518</v>
+        <v>0.2288618064164903</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2604086081891563</v>
+        <v>0.2758363927285745</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2182099790675835</v>
+        <v>0.2313280178026616</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2144172302918743</v>
+        <v>0.2183656173353462</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2412891838698184</v>
+        <v>0.2421332767658021</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4092974364470965</v>
+        <v>0.4408271250809896</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3745093650223627</v>
+        <v>0.3917822245744683</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2498508901265467</v>
+        <v>0.2469335672210787</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1867171393613956</v>
+        <v>0.1926249609352439</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2492822826618303</v>
+        <v>0.2475190760918368</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2415678483124431</v>
+        <v>0.2390015271625879</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2046695980196854</v>
+        <v>0.2093458183899694</v>
       </c>
     </row>
     <row r="16">
@@ -1255,37 +1255,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02777752724173205</v>
+        <v>0.02771146115215843</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04976901811843724</v>
+        <v>0.03908240234494124</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06886649275819606</v>
+        <v>0.07045267882088403</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.12525468190403</v>
+        <v>0.1233836346207693</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02554245980332703</v>
+        <v>0.03551789602391917</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04090415406143803</v>
+        <v>0.04048983832224354</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.101908999964705</v>
+        <v>0.104748083111488</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09309359614688995</v>
+        <v>0.08705306375440588</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03551231343600907</v>
+        <v>0.04265792474143279</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05486557545205523</v>
+        <v>0.06099948524666052</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1099930589535928</v>
+        <v>0.1115488665932799</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2440506606231701</v>
+        <v>0.2816689837403398</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2369012768865162</v>
+        <v>0.2067539715642189</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2194352291972481</v>
+        <v>0.2309908955522845</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2726244184026779</v>
+        <v>0.2744929490684628</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4094962490349993</v>
+        <v>0.4400094841720305</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1515853153020124</v>
+        <v>0.1502125011945266</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2246747986466748</v>
+        <v>0.2394849915922979</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.206735900832787</v>
+        <v>0.203799078865036</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3315684305873008</v>
+        <v>0.3295974827622736</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1384573752752531</v>
+        <v>0.1401454588395306</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1908391820796405</v>
+        <v>0.1860534981283747</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2006264219340989</v>
+        <v>0.2014684838847172</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +1373,7 @@
         <v>0.1308675502504833</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2116313157137369</v>
+        <v>0.211631315713737</v>
       </c>
     </row>
     <row r="20">
@@ -1388,28 +1388,28 @@
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.1228505592792173</v>
+        <v>0.1297745241904995</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1374810335674654</v>
+        <v>0.1357687043832844</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07666845784952116</v>
+        <v>0.07366844318702753</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1629179453222253</v>
+        <v>0.1678949662555218</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1217313236991309</v>
+        <v>0.1229678139588664</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1374810335674654</v>
+        <v>0.1357687043832844</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.07666845784952116</v>
+        <v>0.07366844318702753</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1659207732539699</v>
+        <v>0.1629077133548903</v>
       </c>
     </row>
     <row r="21">
@@ -1424,28 +1424,28 @@
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.2546176811678352</v>
+        <v>0.2682054751062127</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2857102190002568</v>
+        <v>0.2795370117462239</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2099296020274511</v>
+        <v>0.1997377393563593</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2692772492602833</v>
+        <v>0.2738167228743746</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2552819343880616</v>
+        <v>0.2577444328913081</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2857102190002568</v>
+        <v>0.2795370117462239</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2099296020274511</v>
+        <v>0.1997377393563593</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2681493566529955</v>
+        <v>0.2681968249178924</v>
       </c>
     </row>
     <row r="22">
@@ -1469,7 +1469,7 @@
         <v>0.1450799672884868</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1576318696805643</v>
+        <v>0.1576318696805642</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2182311240183027</v>
@@ -1504,40 +1504,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0682851792858145</v>
+        <v>0.07104578713310664</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08412915520851511</v>
+        <v>0.08828850016397888</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09387336926364175</v>
+        <v>0.09131365325303466</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1160615853363278</v>
+        <v>0.1168801223660258</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1673194096932216</v>
+        <v>0.1656097885989236</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1202432117773639</v>
+        <v>0.1230066923200384</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1080355890343721</v>
+        <v>0.113437333923083</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1564246759598531</v>
+        <v>0.1560454722179082</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1456119879531752</v>
+        <v>0.1476788896274832</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.120518380546966</v>
+        <v>0.1226178207481707</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1157044191365999</v>
+        <v>0.1162514950652214</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1517794050433525</v>
+        <v>0.1524753545945488</v>
       </c>
     </row>
     <row r="24">
@@ -1548,40 +1548,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1893449281325758</v>
+        <v>0.178478730276999</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2022522276838096</v>
+        <v>0.2093004415535017</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2044345413184652</v>
+        <v>0.2111288076292383</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2127297907914057</v>
+        <v>0.2050844862692089</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.281011247141275</v>
+        <v>0.2769468120690114</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.217062198646451</v>
+        <v>0.2144234054648387</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2096805142916983</v>
+        <v>0.2125568923162612</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2206729088819231</v>
+        <v>0.2176603528333402</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2285275098359725</v>
+        <v>0.2250788044550181</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1967630993458304</v>
+        <v>0.2001997417916471</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1954990485693039</v>
+        <v>0.1995618596530458</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2039845892847167</v>
+        <v>0.2056889953923657</v>
       </c>
     </row>
     <row r="25">
@@ -1863,31 +1863,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3073</v>
+        <v>3042</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1183</v>
+        <v>1218</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1776</v>
+        <v>1766</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5042</v>
+        <v>5057</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1016</v>
+        <v>1042</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2100</v>
+        <v>2671</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4254</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="7">
@@ -1898,40 +1898,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6421</v>
+        <v>6657</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6056</v>
+        <v>6060</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4928</v>
+        <v>4859</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6411</v>
+        <v>6441</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10495</v>
+        <v>10508</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>3261</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8045</v>
+        <v>7156</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>8334</v>
+        <v>8631</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15087</v>
+        <v>14949</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>8285</v>
+        <v>8302</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>10900</v>
+        <v>11072</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>12638</v>
+        <v>12655</v>
       </c>
     </row>
     <row r="8">
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1191</v>
+        <v>1253</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1805</v>
+        <v>1752</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1963</v>
+        <v>1927</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2472</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="11">
@@ -2078,40 +2078,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5521</v>
+        <v>5473</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5846</v>
+        <v>5891</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4662</v>
+        <v>5310</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6710</v>
+        <v>6883</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>4462</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6358</v>
+        <v>6367</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>5549</v>
+        <v>6711</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>4660</v>
+        <v>4828</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8942</v>
+        <v>8832</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>9918</v>
+        <v>10797</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>9474</v>
+        <v>9234</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>9273</v>
+        <v>9518</v>
       </c>
     </row>
     <row r="12">
@@ -2220,34 +2220,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1703</v>
+        <v>1755</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1517</v>
+        <v>1628</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>994</v>
+        <v>1021</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1638</v>
+        <v>1744</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1094</v>
+        <v>1147</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1923</v>
+        <v>2073</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3353</v>
+        <v>3455</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4560</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="15">
@@ -2258,40 +2258,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4279</v>
+        <v>5117</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6396</v>
+        <v>6364</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8758</v>
+        <v>8907</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6692</v>
+        <v>7377</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6492</v>
+        <v>6424</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7819</v>
+        <v>7829</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7968</v>
+        <v>7938</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7135</v>
+        <v>7168</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9287</v>
+        <v>9179</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>11095</v>
+        <v>11276</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>12781</v>
+        <v>13139</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>11686</v>
+        <v>12075</v>
       </c>
     </row>
     <row r="16">
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4372</v>
+        <v>5068</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5770</v>
+        <v>5549</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1623</v>
+        <v>1641</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6775</v>
+        <v>6711</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2302</v>
+        <v>2290</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3806</v>
+        <v>3979</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5559</v>
+        <v>6302</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>7367</v>
+        <v>7416</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5270</v>
+        <v>5132</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>11641</v>
+        <v>11618</v>
       </c>
     </row>
     <row r="19">
@@ -2438,40 +2438,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14588</v>
+        <v>16164</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17653</v>
+        <v>18699</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8699</v>
+        <v>9222</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>16540</v>
+        <v>16845</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5651</v>
+        <v>5671</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8529</v>
+        <v>9186</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12294</v>
+        <v>12861</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>10454</v>
+        <v>10331</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>17560</v>
+        <v>18116</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>22093</v>
+        <v>21937</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>17560</v>
+        <v>17373</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>24351</v>
+        <v>24908</v>
       </c>
     </row>
     <row r="20">
@@ -2577,37 +2577,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2356</v>
+        <v>1850</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2264</v>
+        <v>2317</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4561</v>
+        <v>4493</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2134</v>
+        <v>2968</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2169</v>
+        <v>2147</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10266</v>
+        <v>10552</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4887</v>
+        <v>4570</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4247</v>
+        <v>5101</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5506</v>
+        <v>6121</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>14697</v>
+        <v>14905</v>
       </c>
     </row>
     <row r="23">
@@ -2618,40 +2618,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3924</v>
+        <v>4529</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8536</v>
+        <v>7450</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>10386</v>
+        <v>10933</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>8964</v>
+        <v>9026</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>14911</v>
+        <v>16023</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>12666</v>
+        <v>12552</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>11912</v>
+        <v>12697</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>20826</v>
+        <v>20530</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>17405</v>
+        <v>17302</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>16558</v>
+        <v>16760</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>19151</v>
+        <v>18670</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>26808</v>
+        <v>26920</v>
       </c>
     </row>
     <row r="24">
@@ -2754,28 +2754,28 @@
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>17697</v>
+        <v>18694</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>19673</v>
+        <v>19428</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>11290</v>
+        <v>10849</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>24778</v>
+        <v>25535</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>17647</v>
+        <v>17826</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>19673</v>
+        <v>19428</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>11290</v>
+        <v>10849</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>25601</v>
+        <v>25136</v>
       </c>
     </row>
     <row r="27">
@@ -2790,28 +2790,28 @@
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>36677</v>
+        <v>38635</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>40884</v>
+        <v>40000</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>30915</v>
+        <v>29414</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>40954</v>
+        <v>41645</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>37006</v>
+        <v>37363</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>40884</v>
+        <v>40000</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>30915</v>
+        <v>29414</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>41374</v>
+        <v>41381</v>
       </c>
     </row>
     <row r="28">
@@ -2914,40 +2914,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>8643</v>
+        <v>8993</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>12297</v>
+        <v>12905</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>11402</v>
+        <v>11091</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>19298</v>
+        <v>19434</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>38638</v>
+        <v>38243</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>33495</v>
+        <v>34265</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>28539</v>
+        <v>29966</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>54602</v>
+        <v>54470</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>52056</v>
+        <v>52795</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>51188</v>
+        <v>52079</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>44618</v>
+        <v>44829</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>78218</v>
+        <v>78576</v>
       </c>
     </row>
     <row r="31">
@@ -2958,40 +2958,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>23967</v>
+        <v>22591</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>29563</v>
+        <v>30593</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>24830</v>
+        <v>25643</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>35371</v>
+        <v>34100</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>64892</v>
+        <v>63953</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>60465</v>
+        <v>59730</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>55390</v>
+        <v>56150</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>77029</v>
+        <v>75977</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>81699</v>
+        <v>80466</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>83571</v>
+        <v>85030</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>75389</v>
+        <v>76956</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>105121</v>
+        <v>105999</v>
       </c>
     </row>
     <row r="32">
